--- a/Bill Extract.xlsx
+++ b/Bill Extract.xlsx
@@ -8,15 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Development Areas\CTech Converter\Library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB198F6F-5205-4D26-80B1-671DCDD131AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D195B77B-EB2B-4B13-BCCA-B9486000BCE7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10920" yWindow="1515" windowWidth="16035" windowHeight="14235" xr2:uid="{0E26AC89-0CF9-4964-8FF4-A1E4BA2D991A}"/>
+    <workbookView xWindow="25500" yWindow="0" windowWidth="19545" windowHeight="16230" activeTab="2" xr2:uid="{0E26AC89-0CF9-4964-8FF4-A1E4BA2D991A}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
     <sheet name="Phone Numbers" sheetId="3" r:id="rId2"/>
     <sheet name="Itemised Extract" sheetId="2" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Itemised Extract'!$A$1:$H$5121</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -35,267 +38,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="116">
-  <si>
-    <t>07342 094 531</t>
-  </si>
-  <si>
-    <t>07342 888 081</t>
-  </si>
-  <si>
-    <t>07447 469 556</t>
-  </si>
-  <si>
-    <t>07528 954 007</t>
-  </si>
-  <si>
-    <t>07540 350 825</t>
-  </si>
-  <si>
-    <t>07540 383 973</t>
-  </si>
-  <si>
-    <t>07555 546 794</t>
-  </si>
-  <si>
-    <t>07590 439 052</t>
-  </si>
-  <si>
-    <t>07595 582 694</t>
-  </si>
-  <si>
-    <t>07734 630 169</t>
-  </si>
-  <si>
-    <t>07741 454 620</t>
-  </si>
-  <si>
-    <t>07765 680 205</t>
-  </si>
-  <si>
-    <t>07787 227 242</t>
-  </si>
-  <si>
-    <t>07795 275 692</t>
-  </si>
-  <si>
-    <t>07798 653 218</t>
-  </si>
-  <si>
-    <t>07827 966 499</t>
-  </si>
-  <si>
-    <t>07830 320 340</t>
-  </si>
-  <si>
-    <t>07832 525 318</t>
-  </si>
-  <si>
-    <t>07854 818 198</t>
-  </si>
-  <si>
-    <t>07856 528 458</t>
-  </si>
-  <si>
-    <t>07865 579 391</t>
-  </si>
-  <si>
-    <t>07866 439 259</t>
-  </si>
-  <si>
-    <t>07876 176 736</t>
-  </si>
-  <si>
-    <t>07881 293 863</t>
-  </si>
-  <si>
-    <t>07884 146 279</t>
-  </si>
-  <si>
-    <t>07903 009 310</t>
-  </si>
-  <si>
-    <t>07908 112 140</t>
-  </si>
-  <si>
-    <t>07910 193 333</t>
-  </si>
-  <si>
-    <t>07920 411 832</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="202">
   <si>
     <t>07922 059 885</t>
-  </si>
-  <si>
-    <t>07938 707 134</t>
-  </si>
-  <si>
-    <t>07966 801 962</t>
-  </si>
-  <si>
-    <t>07972 852 452</t>
-  </si>
-  <si>
-    <t>07982 458 919</t>
-  </si>
-  <si>
-    <t>£55.25</t>
-  </si>
-  <si>
-    <t>£0.00</t>
-  </si>
-  <si>
-    <t>MR JACK SMITH</t>
-  </si>
-  <si>
-    <t>£3.50</t>
-  </si>
-  <si>
-    <t>£58.75</t>
-  </si>
-  <si>
-    <t>MR DANIEL BALL</t>
-  </si>
-  <si>
-    <t>07492 427 008</t>
-  </si>
-  <si>
-    <t>MISS MEL STEER</t>
-  </si>
-  <si>
-    <t>WEAREWISER LIMITED- AIRTIME</t>
-  </si>
-  <si>
-    <t>MR JACK CATHERALL</t>
-  </si>
-  <si>
-    <t>MR JAMES HUGHES</t>
-  </si>
-  <si>
-    <t>£0.12</t>
-  </si>
-  <si>
-    <t>£55.37</t>
-  </si>
-  <si>
-    <t>MISS ELLA MARKHAM</t>
-  </si>
-  <si>
-    <t>£305.25</t>
-  </si>
-  <si>
-    <t>£0.50</t>
-  </si>
-  <si>
-    <t>£55.75</t>
-  </si>
-  <si>
-    <t>£9.99</t>
-  </si>
-  <si>
-    <t>£65.24</t>
-  </si>
-  <si>
-    <t>MR ARI RATNAKUMAR</t>
-  </si>
-  <si>
-    <t>£25.00</t>
-  </si>
-  <si>
-    <t>£80.25</t>
-  </si>
-  <si>
-    <t>MR WILL HEYLINGS</t>
-  </si>
-  <si>
-    <t>MR ADAM CAMPBELL</t>
-  </si>
-  <si>
-    <t>MR FIN OKANE</t>
-  </si>
-  <si>
-    <t>£0.33</t>
-  </si>
-  <si>
-    <t>£305.58</t>
-  </si>
-  <si>
-    <t>MISS ELIZABETH WICKS</t>
-  </si>
-  <si>
-    <t>£6.42</t>
-  </si>
-  <si>
-    <t>£61.67</t>
-  </si>
-  <si>
-    <t>£2.50</t>
-  </si>
-  <si>
-    <t>£57.75</t>
-  </si>
-  <si>
-    <t>MR WILL COOPER</t>
-  </si>
-  <si>
-    <t>£31.00</t>
-  </si>
-  <si>
-    <t>£86.25</t>
-  </si>
-  <si>
-    <t>£0.40</t>
-  </si>
-  <si>
-    <t>£55.65</t>
-  </si>
-  <si>
-    <t>MR OMAR HABBAL</t>
-  </si>
-  <si>
-    <t>£20.34</t>
-  </si>
-  <si>
-    <t>£75.59</t>
-  </si>
-  <si>
-    <t>£155.25</t>
-  </si>
-  <si>
-    <t>£4.00</t>
-  </si>
-  <si>
-    <t>£59.25</t>
-  </si>
-  <si>
-    <t>MISS REBECCA TAN</t>
-  </si>
-  <si>
-    <t>£64.16</t>
-  </si>
-  <si>
-    <t>£119.41</t>
-  </si>
-  <si>
-    <t>MISS STEPH WAINRIGHT</t>
-  </si>
-  <si>
-    <t>£3.07</t>
-  </si>
-  <si>
-    <t>£58.32</t>
-  </si>
-  <si>
-    <t>Business Advance Extra 10</t>
-  </si>
-  <si>
-    <t>MR LEWIS GADSDON</t>
-  </si>
-  <si>
-    <t>MR BEN BUFFONE</t>
-  </si>
-  <si>
-    <t>MR ZACH NICHOLSON</t>
   </si>
   <si>
     <t>Phone Number</t>
@@ -334,55 +79,571 @@
     <t>Cost</t>
   </si>
   <si>
-    <t>07990 566 170</t>
-  </si>
-  <si>
-    <t>LYDIA SHEPARD</t>
-  </si>
-  <si>
-    <t>BEN CHAPMAN</t>
-  </si>
-  <si>
-    <t>ELEANOR FRANCEYS</t>
-  </si>
-  <si>
-    <t>MAX FRY</t>
-  </si>
-  <si>
-    <t>HARRIET GHAUI</t>
-  </si>
-  <si>
-    <t>CARLEY DUNNE</t>
-  </si>
-  <si>
-    <t>ANYA CLAXTON</t>
-  </si>
-  <si>
-    <t>KIMBERLEY CUTHBERTSON</t>
-  </si>
-  <si>
-    <t>SASKIA COCHRANE</t>
-  </si>
-  <si>
-    <t>NIALL SIMPSON</t>
-  </si>
-  <si>
-    <t>HELEN HOPCROFT</t>
-  </si>
-  <si>
-    <t>ANONYMOUS ANONYMOUS</t>
-  </si>
-  <si>
-    <t>HANNAH TOWNSEND</t>
-  </si>
-  <si>
-    <t>JESSICA HOLCOMBE</t>
-  </si>
-  <si>
     <t>Time</t>
   </si>
   <si>
     <t>Index</t>
+  </si>
+  <si>
+    <t>UK Calls</t>
+  </si>
+  <si>
+    <t>Thu 1 Aug</t>
+  </si>
+  <si>
+    <t>another network</t>
+  </si>
+  <si>
+    <t>1m 5s</t>
+  </si>
+  <si>
+    <t>1m 28s</t>
+  </si>
+  <si>
+    <t>Fri 2 Aug</t>
+  </si>
+  <si>
+    <t>0m 25s</t>
+  </si>
+  <si>
+    <t>0m 48s</t>
+  </si>
+  <si>
+    <t>0m 3s</t>
+  </si>
+  <si>
+    <t>Sat 3 Aug</t>
+  </si>
+  <si>
+    <t>0m 7s</t>
+  </si>
+  <si>
+    <t>Mon 5 Aug</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Wed 7 Aug</t>
+  </si>
+  <si>
+    <t>0m 23s</t>
+  </si>
+  <si>
+    <t>0m 4s</t>
+  </si>
+  <si>
+    <t>Thu 8 Aug</t>
+  </si>
+  <si>
+    <t>Fri 9 Aug</t>
+  </si>
+  <si>
+    <t>0m 2s</t>
+  </si>
+  <si>
+    <t>1m 37s</t>
+  </si>
+  <si>
+    <t>0m 8s</t>
+  </si>
+  <si>
+    <t>0m 27s</t>
+  </si>
+  <si>
+    <t>0m 6s</t>
+  </si>
+  <si>
+    <t>0m 51s</t>
+  </si>
+  <si>
+    <t>0m 14s</t>
+  </si>
+  <si>
+    <t>Sat 10 Aug</t>
+  </si>
+  <si>
+    <t>1m 11s</t>
+  </si>
+  <si>
+    <t>Sun 11 Aug</t>
+  </si>
+  <si>
+    <t>1m 18s</t>
+  </si>
+  <si>
+    <t>Mon 12 Aug</t>
+  </si>
+  <si>
+    <t>Tue 13 Aug</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>0m 36s</t>
+  </si>
+  <si>
+    <t>Wed 14 Aug</t>
+  </si>
+  <si>
+    <t>Thu 15 Aug</t>
+  </si>
+  <si>
+    <t>1m 7s</t>
+  </si>
+  <si>
+    <t>1m 8s</t>
+  </si>
+  <si>
+    <t>0m 17s</t>
+  </si>
+  <si>
+    <t>Fri 16 Aug</t>
+  </si>
+  <si>
+    <t>3m 42s</t>
+  </si>
+  <si>
+    <t>Sat 17 Aug</t>
+  </si>
+  <si>
+    <t>1m 9s</t>
+  </si>
+  <si>
+    <t>0m 11s</t>
+  </si>
+  <si>
+    <t>Wed 21 Aug</t>
+  </si>
+  <si>
+    <t>0m 5s</t>
+  </si>
+  <si>
+    <t>Thu 22 Aug</t>
+  </si>
+  <si>
+    <t>Sat 24 Aug</t>
+  </si>
+  <si>
+    <t>Sun 25 Aug</t>
+  </si>
+  <si>
+    <t>0m 18s</t>
+  </si>
+  <si>
+    <t>0m 47s</t>
+  </si>
+  <si>
+    <t>Wed 28 Aug</t>
+  </si>
+  <si>
+    <t>Thu 29 Aug</t>
+  </si>
+  <si>
+    <t>Fri 30 Aug</t>
+  </si>
+  <si>
+    <t>Sat 31 Aug</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>UK Messaging, mobile internet</t>
+  </si>
+  <si>
+    <t>WAP</t>
+  </si>
+  <si>
+    <t>Sun 4 Aug</t>
+  </si>
+  <si>
+    <t>Tue 6 Aug</t>
+  </si>
+  <si>
+    <t>texts</t>
+  </si>
+  <si>
+    <t>Sun 18 Aug</t>
+  </si>
+  <si>
+    <t>Tue 20 Aug</t>
+  </si>
+  <si>
+    <t>Fri 23 Aug</t>
+  </si>
+  <si>
+    <t>Mon 26 Aug</t>
+  </si>
+  <si>
+    <t>Tue 27 Aug</t>
+  </si>
+  <si>
+    <t>3m 18s</t>
+  </si>
+  <si>
+    <t>0m 21s</t>
+  </si>
+  <si>
+    <t>0m 16s</t>
+  </si>
+  <si>
+    <t>11m 43s</t>
+  </si>
+  <si>
+    <t>1m 4s</t>
+  </si>
+  <si>
+    <t>0m 35s</t>
+  </si>
+  <si>
+    <t>9m 11s</t>
+  </si>
+  <si>
+    <t>0m 30s</t>
+  </si>
+  <si>
+    <t>0m 9s</t>
+  </si>
+  <si>
+    <t>0m 54s</t>
+  </si>
+  <si>
+    <t>0m 15s</t>
+  </si>
+  <si>
+    <t>0m 50s</t>
+  </si>
+  <si>
+    <t>4 texts</t>
+  </si>
+  <si>
+    <t>Overseas Texts Received</t>
+  </si>
+  <si>
+    <t>US or Canada</t>
+  </si>
+  <si>
+    <t>0m 49s</t>
+  </si>
+  <si>
+    <t>121</t>
+  </si>
+  <si>
+    <t>2m 39s</t>
+  </si>
+  <si>
+    <t>2m 32s</t>
+  </si>
+  <si>
+    <t>3m 13s</t>
+  </si>
+  <si>
+    <t>4m 20s</t>
+  </si>
+  <si>
+    <t>1m 46s</t>
+  </si>
+  <si>
+    <t>1m 22s</t>
+  </si>
+  <si>
+    <t>UK Mobile Internet</t>
+  </si>
+  <si>
+    <t>2m 11s</t>
+  </si>
+  <si>
+    <t>2m 14s</t>
+  </si>
+  <si>
+    <t>18m 6s</t>
+  </si>
+  <si>
+    <t>1m 41s</t>
+  </si>
+  <si>
+    <t>1m 47s</t>
+  </si>
+  <si>
+    <t>3m 16s</t>
+  </si>
+  <si>
+    <t>11m 2s</t>
+  </si>
+  <si>
+    <t>4m 24s</t>
+  </si>
+  <si>
+    <t>3m 45s</t>
+  </si>
+  <si>
+    <t>Redhill</t>
+  </si>
+  <si>
+    <t>Edinburgh</t>
+  </si>
+  <si>
+    <t>2m 31s</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>Reading</t>
+  </si>
+  <si>
+    <t>1m 32s</t>
+  </si>
+  <si>
+    <t>Sevenoaks</t>
+  </si>
+  <si>
+    <t>2m 20s</t>
+  </si>
+  <si>
+    <t>4m 41s</t>
+  </si>
+  <si>
+    <t>1m 52s</t>
+  </si>
+  <si>
+    <t>2m 34s</t>
+  </si>
+  <si>
+    <t>11m 14s</t>
+  </si>
+  <si>
+    <t>8m 45s</t>
+  </si>
+  <si>
+    <t>6m 50s</t>
+  </si>
+  <si>
+    <t>2m 26s</t>
+  </si>
+  <si>
+    <t>2m 9s</t>
+  </si>
+  <si>
+    <t>14m 56s</t>
+  </si>
+  <si>
+    <t>3m 46s</t>
+  </si>
+  <si>
+    <t>6m 24s</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>1m 50s</t>
+  </si>
+  <si>
+    <t>Welwyn Garden City</t>
+  </si>
+  <si>
+    <t>14m 21s</t>
+  </si>
+  <si>
+    <t>2m 59s</t>
+  </si>
+  <si>
+    <t>6m 0s</t>
+  </si>
+  <si>
+    <t>13m 17s</t>
+  </si>
+  <si>
+    <t>Bristol expansion</t>
+  </si>
+  <si>
+    <t>4m 48s</t>
+  </si>
+  <si>
+    <t>7m 3s</t>
+  </si>
+  <si>
+    <t>18m 26s</t>
+  </si>
+  <si>
+    <t>5m 21s</t>
+  </si>
+  <si>
+    <t>12m 40s</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>19m 49s</t>
+  </si>
+  <si>
+    <t>14m 7s</t>
+  </si>
+  <si>
+    <t>15m 25s</t>
+  </si>
+  <si>
+    <t>12m 12s</t>
+  </si>
+  <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
+    <t>13m 43s</t>
+  </si>
+  <si>
+    <t>17m 32s</t>
+  </si>
+  <si>
+    <t>16m 1s</t>
+  </si>
+  <si>
+    <t>11m 5s</t>
+  </si>
+  <si>
+    <t>Portugal</t>
+  </si>
+  <si>
+    <t>11m 53s</t>
+  </si>
+  <si>
+    <t>10m 46s</t>
+  </si>
+  <si>
+    <t>10m 15s</t>
+  </si>
+  <si>
+    <t>South Korea</t>
+  </si>
+  <si>
+    <t>15m 3s</t>
+  </si>
+  <si>
+    <t>Newmarket</t>
+  </si>
+  <si>
+    <t>Call Promonte</t>
+  </si>
+  <si>
+    <t>53.903MB</t>
+  </si>
+  <si>
+    <t>110.114MB</t>
+  </si>
+  <si>
+    <t>63.305MB</t>
+  </si>
+  <si>
+    <t>285.802MB</t>
+  </si>
+  <si>
+    <t>39.792MB</t>
+  </si>
+  <si>
+    <t>64.363MB</t>
+  </si>
+  <si>
+    <t>50.894MB</t>
+  </si>
+  <si>
+    <t>70.308MB</t>
+  </si>
+  <si>
+    <t>140.624MB</t>
+  </si>
+  <si>
+    <t>371.730MB</t>
+  </si>
+  <si>
+    <t>649.548MB</t>
+  </si>
+  <si>
+    <t>19.130MB</t>
+  </si>
+  <si>
+    <t>63.136MB</t>
+  </si>
+  <si>
+    <t>354.979MB</t>
+  </si>
+  <si>
+    <t>166.270MB</t>
+  </si>
+  <si>
+    <t>192.593MB</t>
+  </si>
+  <si>
+    <t>170.390MB</t>
+  </si>
+  <si>
+    <t>26.539MB</t>
+  </si>
+  <si>
+    <t>630.482MB</t>
+  </si>
+  <si>
+    <t>766.243MB</t>
+  </si>
+  <si>
+    <t>485.590MB</t>
+  </si>
+  <si>
+    <t>2.368MB</t>
+  </si>
+  <si>
+    <t>143.801MB</t>
+  </si>
+  <si>
+    <t>851.842MB</t>
+  </si>
+  <si>
+    <t>127.703MB</t>
+  </si>
+  <si>
+    <t>560.220MB</t>
+  </si>
+  <si>
+    <t>173.526MB</t>
+  </si>
+  <si>
+    <t>692.973MB</t>
+  </si>
+  <si>
+    <t>Tele2 d.o.o</t>
+  </si>
+  <si>
+    <t>38.083MB</t>
+  </si>
+  <si>
+    <t>MTEL Montenegro</t>
+  </si>
+  <si>
+    <t>8.753MB</t>
+  </si>
+  <si>
+    <t>16.547MB</t>
+  </si>
+  <si>
+    <t>Promonte 2</t>
+  </si>
+  <si>
+    <t>call Promonte</t>
+  </si>
+  <si>
+    <t>Promonte</t>
+  </si>
+  <si>
+    <t>VIPNET 65.675KB</t>
+  </si>
+  <si>
+    <t>VIPNET 872.697MB</t>
   </si>
 </sst>
 </file>
@@ -845,8 +1106,8 @@
   <sheetPr codeName="ShtMain"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -889,7 +1150,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94993DBA-04E9-45B8-9216-9799201102EB}">
   <sheetPr codeName="ShtPhoneList"/>
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
@@ -907,742 +1168,22 @@
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>87</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>88</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>89</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>90</v>
+        <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>91</v>
+        <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" t="s">
-        <v>83</v>
-      </c>
-      <c r="E3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" t="s">
-        <v>83</v>
-      </c>
-      <c r="E4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" t="s">
-        <v>83</v>
-      </c>
-      <c r="E5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" t="s">
-        <v>83</v>
-      </c>
-      <c r="E6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" t="s">
-        <v>83</v>
-      </c>
-      <c r="E7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" t="s">
-        <v>84</v>
-      </c>
-      <c r="C8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" t="s">
-        <v>83</v>
-      </c>
-      <c r="E8" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
         <v>6</v>
-      </c>
-      <c r="B9" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" t="s">
-        <v>83</v>
-      </c>
-      <c r="E9" t="s">
-        <v>45</v>
-      </c>
-      <c r="F9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" t="s">
-        <v>83</v>
-      </c>
-      <c r="E10" t="s">
-        <v>35</v>
-      </c>
-      <c r="F10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" t="s">
-        <v>48</v>
-      </c>
-      <c r="D11" t="s">
-        <v>83</v>
-      </c>
-      <c r="E11" t="s">
-        <v>35</v>
-      </c>
-      <c r="F11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" t="s">
-        <v>101</v>
-      </c>
-      <c r="C12" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" t="s">
-        <v>83</v>
-      </c>
-      <c r="E12" t="s">
-        <v>49</v>
-      </c>
-      <c r="F12" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" t="s">
-        <v>102</v>
-      </c>
-      <c r="C13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" t="s">
-        <v>83</v>
-      </c>
-      <c r="E13" t="s">
-        <v>51</v>
-      </c>
-      <c r="F13" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" t="s">
-        <v>53</v>
-      </c>
-      <c r="C14" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" t="s">
-        <v>83</v>
-      </c>
-      <c r="E14" t="s">
-        <v>54</v>
-      </c>
-      <c r="F14" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" t="s">
-        <v>56</v>
-      </c>
-      <c r="C15" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" t="s">
-        <v>83</v>
-      </c>
-      <c r="E15" t="s">
-        <v>35</v>
-      </c>
-      <c r="F15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" t="s">
-        <v>103</v>
-      </c>
-      <c r="C16" t="s">
-        <v>48</v>
-      </c>
-      <c r="D16" t="s">
-        <v>83</v>
-      </c>
-      <c r="E16" t="s">
-        <v>35</v>
-      </c>
-      <c r="F16" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" t="s">
-        <v>104</v>
-      </c>
-      <c r="C17" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" t="s">
-        <v>83</v>
-      </c>
-      <c r="E17" t="s">
-        <v>35</v>
-      </c>
-      <c r="F17" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" t="s">
-        <v>57</v>
-      </c>
-      <c r="C18" t="s">
-        <v>34</v>
-      </c>
-      <c r="D18" t="s">
-        <v>83</v>
-      </c>
-      <c r="E18" t="s">
-        <v>35</v>
-      </c>
-      <c r="F18" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19" t="s">
-        <v>58</v>
-      </c>
-      <c r="C19" t="s">
-        <v>34</v>
-      </c>
-      <c r="D19" t="s">
-        <v>83</v>
-      </c>
-      <c r="E19" t="s">
-        <v>35</v>
-      </c>
-      <c r="F19" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>17</v>
-      </c>
-      <c r="B20" t="s">
-        <v>105</v>
-      </c>
-      <c r="C20" t="s">
-        <v>48</v>
-      </c>
-      <c r="D20" t="s">
-        <v>83</v>
-      </c>
-      <c r="E20" t="s">
-        <v>59</v>
-      </c>
-      <c r="F20" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>18</v>
-      </c>
-      <c r="B21" t="s">
-        <v>61</v>
-      </c>
-      <c r="C21" t="s">
-        <v>34</v>
-      </c>
-      <c r="D21" t="s">
-        <v>83</v>
-      </c>
-      <c r="E21" t="s">
-        <v>62</v>
-      </c>
-      <c r="F21" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>19</v>
-      </c>
-      <c r="B22" t="s">
-        <v>85</v>
-      </c>
-      <c r="C22" t="s">
-        <v>34</v>
-      </c>
-      <c r="D22" t="s">
-        <v>83</v>
-      </c>
-      <c r="E22" t="s">
-        <v>64</v>
-      </c>
-      <c r="F22" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>20</v>
-      </c>
-      <c r="B23" t="s">
-        <v>106</v>
-      </c>
-      <c r="C23" t="s">
-        <v>34</v>
-      </c>
-      <c r="D23" t="s">
-        <v>83</v>
-      </c>
-      <c r="E23" t="s">
-        <v>35</v>
-      </c>
-      <c r="F23" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>21</v>
-      </c>
-      <c r="B24" t="s">
-        <v>66</v>
-      </c>
-      <c r="C24" t="s">
-        <v>34</v>
-      </c>
-      <c r="D24" t="s">
-        <v>83</v>
-      </c>
-      <c r="E24" t="s">
-        <v>67</v>
-      </c>
-      <c r="F24" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>22</v>
-      </c>
-      <c r="B25" t="s">
-        <v>107</v>
-      </c>
-      <c r="C25" t="s">
-        <v>34</v>
-      </c>
-      <c r="D25" t="s">
-        <v>83</v>
-      </c>
-      <c r="E25" t="s">
-        <v>69</v>
-      </c>
-      <c r="F25" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>23</v>
-      </c>
-      <c r="B26" t="s">
-        <v>71</v>
-      </c>
-      <c r="C26" t="s">
-        <v>34</v>
-      </c>
-      <c r="D26" t="s">
-        <v>83</v>
-      </c>
-      <c r="E26" t="s">
-        <v>35</v>
-      </c>
-      <c r="F26" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" t="s">
-        <v>108</v>
-      </c>
-      <c r="C27" t="s">
-        <v>34</v>
-      </c>
-      <c r="D27" t="s">
-        <v>83</v>
-      </c>
-      <c r="E27" t="s">
-        <v>35</v>
-      </c>
-      <c r="F27" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>25</v>
-      </c>
-      <c r="B28" t="s">
-        <v>42</v>
-      </c>
-      <c r="C28" t="s">
-        <v>48</v>
-      </c>
-      <c r="D28" t="s">
-        <v>83</v>
-      </c>
-      <c r="E28" t="s">
-        <v>35</v>
-      </c>
-      <c r="F28" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>26</v>
-      </c>
-      <c r="B29" t="s">
-        <v>109</v>
-      </c>
-      <c r="C29" t="s">
-        <v>34</v>
-      </c>
-      <c r="D29" t="s">
-        <v>83</v>
-      </c>
-      <c r="E29" t="s">
-        <v>72</v>
-      </c>
-      <c r="F29" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>27</v>
-      </c>
-      <c r="B30" t="s">
-        <v>110</v>
-      </c>
-      <c r="C30" t="s">
-        <v>74</v>
-      </c>
-      <c r="D30" t="s">
-        <v>83</v>
-      </c>
-      <c r="E30" t="s">
-        <v>35</v>
-      </c>
-      <c r="F30" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>28</v>
-      </c>
-      <c r="B31" t="s">
-        <v>111</v>
-      </c>
-      <c r="C31" t="s">
-        <v>34</v>
-      </c>
-      <c r="D31" t="s">
-        <v>83</v>
-      </c>
-      <c r="E31" t="s">
-        <v>75</v>
-      </c>
-      <c r="F31" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>29</v>
-      </c>
-      <c r="B32" t="s">
-        <v>77</v>
-      </c>
-      <c r="C32" t="s">
-        <v>34</v>
-      </c>
-      <c r="D32" t="s">
-        <v>83</v>
-      </c>
-      <c r="E32" t="s">
-        <v>78</v>
-      </c>
-      <c r="F32" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>30</v>
-      </c>
-      <c r="B33" t="s">
-        <v>80</v>
-      </c>
-      <c r="C33" t="s">
-        <v>34</v>
-      </c>
-      <c r="D33" t="s">
-        <v>83</v>
-      </c>
-      <c r="E33" t="s">
-        <v>35</v>
-      </c>
-      <c r="F33" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>31</v>
-      </c>
-      <c r="B34" t="s">
-        <v>86</v>
-      </c>
-      <c r="C34" t="s">
-        <v>34</v>
-      </c>
-      <c r="D34" t="s">
-        <v>83</v>
-      </c>
-      <c r="E34" t="s">
-        <v>35</v>
-      </c>
-      <c r="F34" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>32</v>
-      </c>
-      <c r="B35" t="s">
-        <v>112</v>
-      </c>
-      <c r="C35" t="s">
-        <v>34</v>
-      </c>
-      <c r="D35" t="s">
-        <v>83</v>
-      </c>
-      <c r="E35" t="s">
-        <v>81</v>
-      </c>
-      <c r="F35" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>33</v>
-      </c>
-      <c r="B36" t="s">
-        <v>113</v>
-      </c>
-      <c r="C36" t="s">
-        <v>34</v>
-      </c>
-      <c r="D36" t="s">
-        <v>83</v>
-      </c>
-      <c r="E36" t="s">
-        <v>35</v>
-      </c>
-      <c r="F36" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>99</v>
-      </c>
-      <c r="B37" t="s">
-        <v>42</v>
-      </c>
-      <c r="C37" t="s">
-        <v>34</v>
-      </c>
-      <c r="D37" t="s">
-        <v>83</v>
-      </c>
-      <c r="E37" t="s">
-        <v>35</v>
-      </c>
-      <c r="F37" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1656,8 +1197,8 @@
   <sheetPr codeName="ShtItemList"/>
   <dimension ref="A1:H5214"/>
   <sheetViews>
-    <sheetView topLeftCell="A1612" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I1639" sqref="I1639"/>
+    <sheetView tabSelected="1" topLeftCell="A109" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H109" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1665,514 +1206,3872 @@
     <col min="1" max="1" width="6" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6.5703125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="7">
+        <v>4</v>
+      </c>
+      <c r="B2" s="4">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="G2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
+        <v>6</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0.35138888888888892</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="G3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H3" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
+        <v>7</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0.70000000000000007</v>
+      </c>
+      <c r="C4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" t="s">
+        <v>141</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>9</v>
+      </c>
+      <c r="B5" s="4">
+        <v>0.76458333333333339</v>
+      </c>
+      <c r="C5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>11</v>
+      </c>
+      <c r="B6" s="4">
+        <v>0.57916666666666672</v>
+      </c>
+      <c r="C6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" t="s">
+        <v>126</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>13</v>
+      </c>
+      <c r="B7" s="4">
+        <v>0.52569444444444446</v>
+      </c>
+      <c r="C7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" t="s">
+        <v>100</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>14</v>
+      </c>
+      <c r="B8" s="4">
+        <v>0.77986111111111101</v>
+      </c>
+      <c r="C8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="G8" t="s">
+        <v>64</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>16</v>
+      </c>
+      <c r="B9" s="4">
+        <v>0.61319444444444449</v>
+      </c>
+      <c r="C9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" t="s">
+        <v>128</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <v>18</v>
+      </c>
+      <c r="B10" s="4">
+        <v>0.3743055555555555</v>
+      </c>
+      <c r="C10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="G10" t="s">
+        <v>110</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
+        <v>19</v>
+      </c>
+      <c r="B11" s="4">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" t="s">
+        <v>135</v>
+      </c>
+      <c r="H11" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
+        <v>20</v>
+      </c>
+      <c r="B12" s="4">
+        <v>0.48333333333333334</v>
+      </c>
+      <c r="C12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
+        <v>21</v>
+      </c>
+      <c r="B13" s="4">
+        <v>0.48749999999999999</v>
+      </c>
+      <c r="C13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" t="s">
+        <v>51</v>
+      </c>
+      <c r="H13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
+        <v>22</v>
+      </c>
+      <c r="B14" s="4">
+        <v>0.72777777777777775</v>
+      </c>
+      <c r="C14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" t="s">
+        <v>33</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="7">
+        <v>23</v>
+      </c>
+      <c r="B15" s="4">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="C15" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G15" t="s">
+        <v>33</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="7">
+        <v>24</v>
+      </c>
+      <c r="B16" s="4">
+        <v>0.75416666666666676</v>
+      </c>
+      <c r="C16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" t="s">
+        <v>33</v>
+      </c>
+      <c r="H16" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="7">
+        <v>26</v>
+      </c>
+      <c r="B17" s="4">
+        <v>0.43194444444444446</v>
+      </c>
+      <c r="C17" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" t="s">
+        <v>51</v>
+      </c>
+      <c r="H17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="7">
+        <v>27</v>
+      </c>
+      <c r="B18" s="4">
+        <v>0.76458333333333339</v>
+      </c>
+      <c r="C18" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G18" t="s">
+        <v>47</v>
+      </c>
+      <c r="H18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="7">
+        <v>28</v>
+      </c>
+      <c r="B19" s="4">
+        <v>0.82361111111111107</v>
+      </c>
+      <c r="C19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="G19" t="s">
+        <v>52</v>
+      </c>
+      <c r="H19" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="7">
+        <v>30</v>
+      </c>
+      <c r="B20" s="4">
+        <v>0.40902777777777777</v>
+      </c>
+      <c r="C20" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" t="s">
+        <v>45</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G20" t="s">
+        <v>127</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="7">
+        <v>31</v>
+      </c>
+      <c r="B21" s="4">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" t="s">
+        <v>45</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G21" t="s">
+        <v>105</v>
+      </c>
+      <c r="H21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="7">
+        <v>32</v>
+      </c>
+      <c r="B22" s="4">
+        <v>0.68194444444444446</v>
+      </c>
+      <c r="C22" t="s">
+        <v>0</v>
+      </c>
+      <c r="D22" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" t="s">
+        <v>45</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G22" t="s">
+        <v>89</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="7">
+        <v>33</v>
+      </c>
+      <c r="B23" s="4">
+        <v>0.71597222222222223</v>
+      </c>
+      <c r="C23" t="s">
+        <v>0</v>
+      </c>
+      <c r="D23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" t="s">
+        <v>45</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G23" t="s">
+        <v>43</v>
+      </c>
+      <c r="H23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="7">
+        <v>34</v>
+      </c>
+      <c r="B24" s="4">
+        <v>0.71736111111111101</v>
+      </c>
+      <c r="C24" t="s">
+        <v>0</v>
+      </c>
+      <c r="D24" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" t="s">
+        <v>45</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G24" t="s">
+        <v>98</v>
+      </c>
+      <c r="H24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="7">
+        <v>35</v>
+      </c>
+      <c r="B25" s="4">
+        <v>0.78402777777777777</v>
+      </c>
+      <c r="C25" t="s">
+        <v>0</v>
+      </c>
+      <c r="D25" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" t="s">
+        <v>45</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G25" t="s">
+        <v>33</v>
+      </c>
+      <c r="H25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="7">
+        <v>37</v>
+      </c>
+      <c r="B26" s="4">
+        <v>0.44375000000000003</v>
+      </c>
+      <c r="C26" t="s">
+        <v>0</v>
+      </c>
+      <c r="D26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26" t="s">
+        <v>48</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="G26" t="s">
+        <v>137</v>
+      </c>
+      <c r="H26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="7">
+        <v>38</v>
+      </c>
+      <c r="B27" s="4">
+        <v>0.44861111111111113</v>
+      </c>
+      <c r="C27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D27" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" t="s">
+        <v>48</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="G27" t="s">
+        <v>111</v>
+      </c>
+      <c r="H27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="7">
+        <v>39</v>
+      </c>
+      <c r="B28" s="4">
+        <v>0.45555555555555555</v>
+      </c>
+      <c r="C28" t="s">
+        <v>0</v>
+      </c>
+      <c r="D28" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28" t="s">
+        <v>48</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="G28" t="s">
+        <v>63</v>
+      </c>
+      <c r="H28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="7">
+        <v>40</v>
+      </c>
+      <c r="B29" s="4">
+        <v>0.45624999999999999</v>
+      </c>
+      <c r="C29" t="s">
+        <v>0</v>
+      </c>
+      <c r="D29" t="s">
+        <v>15</v>
+      </c>
+      <c r="E29" t="s">
+        <v>48</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="G29" t="s">
+        <v>37</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="7">
+        <v>41</v>
+      </c>
+      <c r="B30" s="4">
+        <v>0.45624999999999999</v>
+      </c>
+      <c r="C30" t="s">
+        <v>0</v>
+      </c>
+      <c r="D30" t="s">
+        <v>15</v>
+      </c>
+      <c r="E30" t="s">
+        <v>48</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="G30" t="s">
+        <v>97</v>
+      </c>
+      <c r="H30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="7">
+        <v>42</v>
+      </c>
+      <c r="B31" s="4">
+        <v>0.45902777777777781</v>
+      </c>
+      <c r="C31" t="s">
+        <v>0</v>
+      </c>
+      <c r="D31" t="s">
+        <v>15</v>
+      </c>
+      <c r="E31" t="s">
+        <v>48</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="G31" t="s">
+        <v>34</v>
+      </c>
+      <c r="H31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="7">
+        <v>43</v>
+      </c>
+      <c r="B32" s="4">
+        <v>0.46111111111111108</v>
+      </c>
+      <c r="C32" t="s">
+        <v>0</v>
+      </c>
+      <c r="D32" t="s">
+        <v>15</v>
+      </c>
+      <c r="E32" t="s">
+        <v>48</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="G32" t="s">
+        <v>34</v>
+      </c>
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="7">
+        <v>44</v>
+      </c>
+      <c r="B33" s="4">
+        <v>0.46458333333333335</v>
+      </c>
+      <c r="C33" t="s">
+        <v>0</v>
+      </c>
+      <c r="D33" t="s">
+        <v>15</v>
+      </c>
+      <c r="E33" t="s">
+        <v>48</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="G33" t="s">
+        <v>59</v>
+      </c>
+      <c r="H33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="7">
+        <v>45</v>
+      </c>
+      <c r="B34" s="4">
+        <v>0.46597222222222223</v>
+      </c>
+      <c r="C34" t="s">
+        <v>0</v>
+      </c>
+      <c r="D34" t="s">
+        <v>15</v>
+      </c>
+      <c r="E34" t="s">
+        <v>48</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="G34" t="s">
+        <v>22</v>
+      </c>
+      <c r="H34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="7">
+        <v>46</v>
+      </c>
+      <c r="B35" s="4">
+        <v>0.46736111111111112</v>
+      </c>
+      <c r="C35" t="s">
+        <v>0</v>
+      </c>
+      <c r="D35" t="s">
+        <v>15</v>
+      </c>
+      <c r="E35" t="s">
+        <v>48</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="G35" t="s">
+        <v>80</v>
+      </c>
+      <c r="H35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="7">
+        <v>47</v>
+      </c>
+      <c r="B36" s="4">
+        <v>0.47013888888888888</v>
+      </c>
+      <c r="C36" t="s">
+        <v>0</v>
+      </c>
+      <c r="D36" t="s">
+        <v>15</v>
+      </c>
+      <c r="E36" t="s">
+        <v>48</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="G36" t="s">
+        <v>130</v>
+      </c>
+      <c r="H36" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="7">
+        <v>48</v>
+      </c>
+      <c r="B37" s="4">
+        <v>0.47430555555555554</v>
+      </c>
+      <c r="C37" t="s">
+        <v>0</v>
+      </c>
+      <c r="D37" t="s">
+        <v>15</v>
+      </c>
+      <c r="E37" t="s">
+        <v>48</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="G37" t="s">
+        <v>50</v>
+      </c>
+      <c r="H37" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="7">
+        <v>49</v>
+      </c>
+      <c r="B38" s="4">
+        <v>0.47569444444444442</v>
+      </c>
+      <c r="C38" t="s">
+        <v>0</v>
+      </c>
+      <c r="D38" t="s">
+        <v>15</v>
+      </c>
+      <c r="E38" t="s">
+        <v>48</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="G38" t="s">
+        <v>121</v>
+      </c>
+      <c r="H38" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="7">
+        <v>50</v>
+      </c>
+      <c r="B39" s="4">
+        <v>0.48055555555555557</v>
+      </c>
+      <c r="C39" t="s">
+        <v>0</v>
+      </c>
+      <c r="D39" t="s">
+        <v>15</v>
+      </c>
+      <c r="E39" t="s">
+        <v>48</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="G39" t="s">
         <v>115</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="H39" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="7">
+        <v>51</v>
+      </c>
+      <c r="B40" s="4">
+        <v>0.4826388888888889</v>
+      </c>
+      <c r="C40" t="s">
+        <v>0</v>
+      </c>
+      <c r="D40" t="s">
+        <v>15</v>
+      </c>
+      <c r="E40" t="s">
+        <v>48</v>
+      </c>
+      <c r="F40" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="G40" t="s">
+        <v>122</v>
+      </c>
+      <c r="H40" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="7">
+        <v>52</v>
+      </c>
+      <c r="B41" s="4">
+        <v>0.48472222222222222</v>
+      </c>
+      <c r="C41" t="s">
+        <v>0</v>
+      </c>
+      <c r="D41" t="s">
+        <v>15</v>
+      </c>
+      <c r="E41" t="s">
+        <v>48</v>
+      </c>
+      <c r="F41" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="G41" t="s">
+        <v>112</v>
+      </c>
+      <c r="H41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="7">
+        <v>53</v>
+      </c>
+      <c r="B42" s="4">
+        <v>0.48888888888888887</v>
+      </c>
+      <c r="C42" t="s">
+        <v>0</v>
+      </c>
+      <c r="D42" t="s">
+        <v>15</v>
+      </c>
+      <c r="E42" t="s">
+        <v>48</v>
+      </c>
+      <c r="F42" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="G42" t="s">
+        <v>140</v>
+      </c>
+      <c r="H42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="7">
+        <v>54</v>
+      </c>
+      <c r="B43" s="4">
+        <v>0.49236111111111108</v>
+      </c>
+      <c r="C43" t="s">
+        <v>0</v>
+      </c>
+      <c r="D43" t="s">
+        <v>15</v>
+      </c>
+      <c r="E43" t="s">
+        <v>48</v>
+      </c>
+      <c r="F43" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="G43" t="s">
+        <v>107</v>
+      </c>
+      <c r="H43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="7">
+        <v>55</v>
+      </c>
+      <c r="B44" s="4">
+        <v>0.49444444444444446</v>
+      </c>
+      <c r="C44" t="s">
+        <v>0</v>
+      </c>
+      <c r="D44" t="s">
+        <v>15</v>
+      </c>
+      <c r="E44" t="s">
+        <v>48</v>
+      </c>
+      <c r="F44" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G44" t="s">
+        <v>120</v>
+      </c>
+      <c r="H44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="7">
+        <v>56</v>
+      </c>
+      <c r="B45" s="4">
+        <v>0.49791666666666662</v>
+      </c>
+      <c r="C45" t="s">
+        <v>0</v>
+      </c>
+      <c r="D45" t="s">
+        <v>15</v>
+      </c>
+      <c r="E45" t="s">
+        <v>48</v>
+      </c>
+      <c r="F45" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G45" t="s">
+        <v>95</v>
+      </c>
+      <c r="H45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="7">
+        <v>57</v>
+      </c>
+      <c r="B46" s="4">
+        <v>0.50138888888888888</v>
+      </c>
+      <c r="C46" t="s">
+        <v>0</v>
+      </c>
+      <c r="D46" t="s">
+        <v>15</v>
+      </c>
+      <c r="E46" t="s">
+        <v>48</v>
+      </c>
+      <c r="F46" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="G46" t="s">
+        <v>101</v>
+      </c>
+      <c r="H46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="7">
+        <v>58</v>
+      </c>
+      <c r="B47" s="4">
+        <v>0.56319444444444444</v>
+      </c>
+      <c r="C47" t="s">
+        <v>0</v>
+      </c>
+      <c r="D47" t="s">
+        <v>15</v>
+      </c>
+      <c r="E47" t="s">
+        <v>48</v>
+      </c>
+      <c r="F47" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G47" t="s">
+        <v>81</v>
+      </c>
+      <c r="H47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="7">
+        <v>59</v>
+      </c>
+      <c r="B48" s="4">
+        <v>0.5708333333333333</v>
+      </c>
+      <c r="C48" t="s">
+        <v>0</v>
+      </c>
+      <c r="D48" t="s">
+        <v>15</v>
+      </c>
+      <c r="E48" t="s">
+        <v>48</v>
+      </c>
+      <c r="F48" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="G48" t="s">
+        <v>87</v>
+      </c>
+      <c r="H48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="7">
+        <v>62</v>
+      </c>
+      <c r="B49" s="4">
+        <v>0.57222222222222219</v>
+      </c>
+      <c r="C49" t="s">
+        <v>0</v>
+      </c>
+      <c r="D49" t="s">
+        <v>15</v>
+      </c>
+      <c r="E49" t="s">
+        <v>48</v>
+      </c>
+      <c r="F49" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="G49" t="s">
+        <v>39</v>
+      </c>
+      <c r="H49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="7">
+        <v>63</v>
+      </c>
+      <c r="B50" s="4">
+        <v>0.6020833333333333</v>
+      </c>
+      <c r="C50" t="s">
+        <v>0</v>
+      </c>
+      <c r="D50" t="s">
+        <v>15</v>
+      </c>
+      <c r="E50" t="s">
+        <v>48</v>
+      </c>
+      <c r="F50" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="G50" t="s">
+        <v>142</v>
+      </c>
+      <c r="H50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="7">
+        <v>64</v>
+      </c>
+      <c r="B51" s="4">
+        <v>0.6479166666666667</v>
+      </c>
+      <c r="C51" t="s">
+        <v>0</v>
+      </c>
+      <c r="D51" t="s">
+        <v>15</v>
+      </c>
+      <c r="E51" t="s">
+        <v>48</v>
+      </c>
+      <c r="F51" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="G51" t="s">
+        <v>88</v>
+      </c>
+      <c r="H51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="7">
+        <v>65</v>
+      </c>
+      <c r="B52" s="4">
+        <v>0.67361111111111116</v>
+      </c>
+      <c r="C52" t="s">
+        <v>0</v>
+      </c>
+      <c r="D52" t="s">
+        <v>15</v>
+      </c>
+      <c r="E52" t="s">
+        <v>48</v>
+      </c>
+      <c r="F52" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="G52" t="s">
+        <v>143</v>
+      </c>
+      <c r="H52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="7">
+        <v>66</v>
+      </c>
+      <c r="B53" s="4">
+        <v>0.68819444444444444</v>
+      </c>
+      <c r="C53" t="s">
+        <v>0</v>
+      </c>
+      <c r="D53" t="s">
+        <v>15</v>
+      </c>
+      <c r="E53" t="s">
+        <v>48</v>
+      </c>
+      <c r="F53" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="G53" t="s">
+        <v>25</v>
+      </c>
+      <c r="H53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="7">
+        <v>67</v>
+      </c>
+      <c r="B54" s="4">
+        <v>0.69305555555555554</v>
+      </c>
+      <c r="C54" t="s">
+        <v>0</v>
+      </c>
+      <c r="D54" t="s">
+        <v>15</v>
+      </c>
+      <c r="E54" t="s">
+        <v>48</v>
+      </c>
+      <c r="F54" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="G54" t="s">
+        <v>144</v>
+      </c>
+      <c r="H54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="7">
+        <v>68</v>
+      </c>
+      <c r="B55" s="4">
+        <v>0.73888888888888893</v>
+      </c>
+      <c r="C55" t="s">
+        <v>0</v>
+      </c>
+      <c r="D55" t="s">
+        <v>15</v>
+      </c>
+      <c r="E55" t="s">
+        <v>48</v>
+      </c>
+      <c r="F55" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="G55" t="s">
+        <v>136</v>
+      </c>
+      <c r="H55" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="7">
+        <v>70</v>
+      </c>
+      <c r="B56" s="4">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="C56" t="s">
+        <v>0</v>
+      </c>
+      <c r="D56" t="s">
+        <v>15</v>
+      </c>
+      <c r="E56" t="s">
+        <v>49</v>
+      </c>
+      <c r="F56" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G56" t="s">
+        <v>118</v>
+      </c>
+      <c r="H56" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="7">
+        <v>71</v>
+      </c>
+      <c r="B57" s="4">
+        <v>0.39305555555555555</v>
+      </c>
+      <c r="C57" t="s">
+        <v>0</v>
+      </c>
+      <c r="D57" t="s">
+        <v>15</v>
+      </c>
+      <c r="E57" t="s">
+        <v>49</v>
+      </c>
+      <c r="F57" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="G57" t="s">
+        <v>59</v>
+      </c>
+      <c r="H57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="7">
+        <v>72</v>
+      </c>
+      <c r="B58" s="4">
+        <v>0.40208333333333335</v>
+      </c>
+      <c r="C58" t="s">
+        <v>0</v>
+      </c>
+      <c r="D58" t="s">
+        <v>15</v>
+      </c>
+      <c r="E58" t="s">
+        <v>49</v>
+      </c>
+      <c r="F58" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="G58" t="s">
+        <v>59</v>
+      </c>
+      <c r="H58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="7">
+        <v>73</v>
+      </c>
+      <c r="B59" s="4">
+        <v>0.40347222222222223</v>
+      </c>
+      <c r="C59" t="s">
+        <v>0</v>
+      </c>
+      <c r="D59" t="s">
+        <v>15</v>
+      </c>
+      <c r="E59" t="s">
+        <v>49</v>
+      </c>
+      <c r="F59" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="G59" t="s">
+        <v>147</v>
+      </c>
+      <c r="H59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="7">
+        <v>74</v>
+      </c>
+      <c r="B60" s="4">
+        <v>0.50277777777777777</v>
+      </c>
+      <c r="C60" t="s">
+        <v>0</v>
+      </c>
+      <c r="D60" t="s">
+        <v>15</v>
+      </c>
+      <c r="E60" t="s">
+        <v>49</v>
+      </c>
+      <c r="F60" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G60" t="s">
+        <v>36</v>
+      </c>
+      <c r="H60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="7">
+        <v>75</v>
+      </c>
+      <c r="B61" s="4">
+        <v>0.50486111111111109</v>
+      </c>
+      <c r="C61" t="s">
+        <v>0</v>
+      </c>
+      <c r="D61" t="s">
+        <v>15</v>
+      </c>
+      <c r="E61" t="s">
+        <v>49</v>
+      </c>
+      <c r="F61" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="G61" t="s">
+        <v>30</v>
+      </c>
+      <c r="H61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="7">
+        <v>76</v>
+      </c>
+      <c r="B62" s="4">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="C62" t="s">
+        <v>0</v>
+      </c>
+      <c r="D62" t="s">
+        <v>15</v>
+      </c>
+      <c r="E62" t="s">
+        <v>49</v>
+      </c>
+      <c r="F62" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G62" t="s">
+        <v>104</v>
+      </c>
+      <c r="H62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="7">
+        <v>77</v>
+      </c>
+      <c r="B63" s="4">
+        <v>0.59236111111111112</v>
+      </c>
+      <c r="C63" t="s">
+        <v>0</v>
+      </c>
+      <c r="D63" t="s">
+        <v>15</v>
+      </c>
+      <c r="E63" t="s">
+        <v>49</v>
+      </c>
+      <c r="F63" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="G63" t="s">
+        <v>19</v>
+      </c>
+      <c r="H63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="7">
+        <v>78</v>
+      </c>
+      <c r="B64" s="4">
+        <v>0.625</v>
+      </c>
+      <c r="C64" t="s">
+        <v>0</v>
+      </c>
+      <c r="D64" t="s">
+        <v>15</v>
+      </c>
+      <c r="E64" t="s">
+        <v>49</v>
+      </c>
+      <c r="F64" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G64" t="s">
+        <v>106</v>
+      </c>
+      <c r="H64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="7">
+        <v>80</v>
+      </c>
+      <c r="B65" s="4">
+        <v>0.37916666666666665</v>
+      </c>
+      <c r="C65" t="s">
+        <v>0</v>
+      </c>
+      <c r="D65" t="s">
+        <v>15</v>
+      </c>
+      <c r="E65" t="s">
+        <v>53</v>
+      </c>
+      <c r="F65" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="G65" t="s">
+        <v>18</v>
+      </c>
+      <c r="H65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="7">
+        <v>81</v>
+      </c>
+      <c r="B66" s="4">
+        <v>0.39374999999999999</v>
+      </c>
+      <c r="C66" t="s">
+        <v>0</v>
+      </c>
+      <c r="D66" t="s">
+        <v>15</v>
+      </c>
+      <c r="E66" t="s">
+        <v>53</v>
+      </c>
+      <c r="F66" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="G66" t="s">
+        <v>148</v>
+      </c>
+      <c r="H66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="7">
+        <v>82</v>
+      </c>
+      <c r="B67" s="4">
+        <v>0.4145833333333333</v>
+      </c>
+      <c r="C67" t="s">
+        <v>0</v>
+      </c>
+      <c r="D67" t="s">
+        <v>15</v>
+      </c>
+      <c r="E67" t="s">
+        <v>53</v>
+      </c>
+      <c r="F67" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="G67" t="s">
+        <v>149</v>
+      </c>
+      <c r="H67" s="3">
+        <v>1.319</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="7">
+        <v>83</v>
+      </c>
+      <c r="B68" s="4">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="C68" t="s">
+        <v>0</v>
+      </c>
+      <c r="D68" t="s">
+        <v>15</v>
+      </c>
+      <c r="E68" t="s">
+        <v>53</v>
+      </c>
+      <c r="F68" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G68" t="s">
+        <v>85</v>
+      </c>
+      <c r="H68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="7">
+        <v>84</v>
+      </c>
+      <c r="B69" s="4">
+        <v>0.4381944444444445</v>
+      </c>
+      <c r="C69" t="s">
+        <v>0</v>
+      </c>
+      <c r="D69" t="s">
+        <v>15</v>
+      </c>
+      <c r="E69" t="s">
+        <v>53</v>
+      </c>
+      <c r="F69" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="G69" t="s">
+        <v>150</v>
+      </c>
+      <c r="H69" s="3">
+        <v>1.464</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="7">
+        <v>85</v>
+      </c>
+      <c r="B70" s="4">
+        <v>0.46527777777777773</v>
+      </c>
+      <c r="C70" t="s">
+        <v>0</v>
+      </c>
+      <c r="D70" t="s">
+        <v>15</v>
+      </c>
+      <c r="E70" t="s">
+        <v>53</v>
+      </c>
+      <c r="F70" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="G70" t="s">
+        <v>23</v>
+      </c>
+      <c r="H70" s="3">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="7">
+        <v>86</v>
+      </c>
+      <c r="B71" s="4">
+        <v>0.47847222222222219</v>
+      </c>
+      <c r="C71" t="s">
+        <v>0</v>
+      </c>
+      <c r="D71" t="s">
+        <v>15</v>
+      </c>
+      <c r="E71" t="s">
+        <v>53</v>
+      </c>
+      <c r="F71" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G71" t="s">
+        <v>30</v>
+      </c>
+      <c r="H71" s="3">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="7">
+        <v>87</v>
+      </c>
+      <c r="B72" s="4">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="C72" t="s">
+        <v>0</v>
+      </c>
+      <c r="D72" t="s">
+        <v>15</v>
+      </c>
+      <c r="E72" t="s">
+        <v>53</v>
+      </c>
+      <c r="F72" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G72" t="s">
+        <v>152</v>
+      </c>
+      <c r="H72" s="3">
+        <v>1.6459999999999999</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="7">
+        <v>88</v>
+      </c>
+      <c r="B73" s="4">
+        <v>0.53402777777777777</v>
+      </c>
+      <c r="C73" t="s">
+        <v>0</v>
+      </c>
+      <c r="D73" t="s">
+        <v>15</v>
+      </c>
+      <c r="E73" t="s">
+        <v>53</v>
+      </c>
+      <c r="F73" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G73" t="s">
+        <v>23</v>
+      </c>
+      <c r="H73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" s="7">
+        <v>89</v>
+      </c>
+      <c r="B74" s="4">
+        <v>0.58194444444444449</v>
+      </c>
+      <c r="C74" t="s">
+        <v>0</v>
+      </c>
+      <c r="D74" t="s">
+        <v>15</v>
+      </c>
+      <c r="E74" t="s">
+        <v>53</v>
+      </c>
+      <c r="F74" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="G74" t="s">
+        <v>153</v>
+      </c>
+      <c r="H74" s="3">
+        <v>2.1040000000000001</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" s="7">
+        <v>90</v>
+      </c>
+      <c r="B75" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="C75" t="s">
+        <v>0</v>
+      </c>
+      <c r="D75" t="s">
+        <v>15</v>
+      </c>
+      <c r="E75" t="s">
+        <v>53</v>
+      </c>
+      <c r="F75" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G75" t="s">
+        <v>30</v>
+      </c>
+      <c r="H75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" s="7">
+        <v>91</v>
+      </c>
+      <c r="B76" s="4">
+        <v>0.60277777777777775</v>
+      </c>
+      <c r="C76" t="s">
+        <v>0</v>
+      </c>
+      <c r="D76" t="s">
+        <v>15</v>
+      </c>
+      <c r="E76" t="s">
+        <v>53</v>
+      </c>
+      <c r="F76" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="G76" t="s">
+        <v>23</v>
+      </c>
+      <c r="H76" s="3">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" s="7">
+        <v>92</v>
+      </c>
+      <c r="B77" s="4">
+        <v>0.61111111111111105</v>
+      </c>
+      <c r="C77" t="s">
+        <v>0</v>
+      </c>
+      <c r="D77" t="s">
+        <v>15</v>
+      </c>
+      <c r="E77" t="s">
+        <v>53</v>
+      </c>
+      <c r="F77" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G77" t="s">
+        <v>131</v>
+      </c>
+      <c r="H77" s="3">
+        <v>0.76800000000000002</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" s="7">
         <v>93</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B78" s="4">
+        <v>0.62430555555555556</v>
+      </c>
+      <c r="C78" t="s">
+        <v>0</v>
+      </c>
+      <c r="D78" t="s">
+        <v>15</v>
+      </c>
+      <c r="E78" t="s">
+        <v>53</v>
+      </c>
+      <c r="F78" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="G78" t="s">
+        <v>154</v>
+      </c>
+      <c r="H78" s="3">
+        <v>1.9219999999999999</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" s="7">
         <v>94</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B79" s="4">
+        <v>0.64374999999999993</v>
+      </c>
+      <c r="C79" t="s">
+        <v>0</v>
+      </c>
+      <c r="D79" t="s">
+        <v>15</v>
+      </c>
+      <c r="E79" t="s">
+        <v>53</v>
+      </c>
+      <c r="F79" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="G79" t="s">
+        <v>86</v>
+      </c>
+      <c r="H79" s="3">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" s="7">
         <v>95</v>
       </c>
-      <c r="F1" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="G1" s="2" t="s">
+      <c r="B80" s="4">
+        <v>0.68541666666666667</v>
+      </c>
+      <c r="C80" t="s">
+        <v>0</v>
+      </c>
+      <c r="D80" t="s">
+        <v>15</v>
+      </c>
+      <c r="E80" t="s">
+        <v>53</v>
+      </c>
+      <c r="F80" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="G80" t="s">
+        <v>83</v>
+      </c>
+      <c r="H80" s="3">
+        <v>1.4059999999999999</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" s="7">
         <v>97</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="B81" s="4">
+        <v>0.56874999999999998</v>
+      </c>
+      <c r="C81" t="s">
+        <v>0</v>
+      </c>
+      <c r="D81" t="s">
+        <v>15</v>
+      </c>
+      <c r="E81" t="s">
+        <v>66</v>
+      </c>
+      <c r="F81" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G81" t="s">
+        <v>91</v>
+      </c>
+      <c r="H81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" s="7">
         <v>98</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="4"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="4"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="4"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="4"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="4"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="4"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="4"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="4"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="4"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="4"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="4"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="4"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="4"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="4"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="4"/>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" s="4"/>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" s="4"/>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B19" s="4"/>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B20" s="4"/>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B21" s="4"/>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B22" s="4"/>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B23" s="4"/>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B24" s="4"/>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B25" s="4"/>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B26" s="4"/>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B27" s="4"/>
-    </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B28" s="4"/>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B29" s="4"/>
-    </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B30" s="4"/>
-    </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B31" s="4"/>
-    </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B32" s="4"/>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B33" s="4"/>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B34" s="4"/>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B35" s="4"/>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B36" s="4"/>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B37" s="4"/>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B38" s="4"/>
-    </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B39" s="4"/>
-    </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B40" s="4"/>
-    </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B41" s="4"/>
-    </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B42" s="4"/>
-    </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B43" s="4"/>
-    </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B44" s="4"/>
-    </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B45" s="4"/>
-    </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B46" s="4"/>
-    </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B47" s="4"/>
-    </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B48" s="4"/>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B49" s="4"/>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B50" s="4"/>
-    </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B51" s="4"/>
-    </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B52" s="4"/>
-    </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B53" s="4"/>
-    </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B54" s="4"/>
-    </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B55" s="4"/>
-    </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B56" s="4"/>
-    </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B57" s="4"/>
-    </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B58" s="4"/>
-    </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B59" s="4"/>
-    </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B60" s="4"/>
-    </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B61" s="4"/>
-    </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B62" s="4"/>
-    </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B63" s="4"/>
-    </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B64" s="4"/>
-    </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B65" s="4"/>
-    </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B66" s="4"/>
-    </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B67" s="4"/>
-    </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B68" s="4"/>
-    </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B69" s="4"/>
-    </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B70" s="4"/>
-    </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B71" s="4"/>
-    </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B72" s="4"/>
-    </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B73" s="4"/>
-    </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B74" s="4"/>
-    </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B75" s="4"/>
-    </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B76" s="4"/>
-    </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B77" s="4"/>
-    </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B78" s="4"/>
-    </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B79" s="4"/>
-    </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B80" s="4"/>
-    </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B81" s="4"/>
-    </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B82" s="4"/>
-    </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B83" s="4"/>
-    </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B84" s="4"/>
-    </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B85" s="4"/>
-    </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B86" s="4"/>
-    </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B87" s="4"/>
-    </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B88" s="4"/>
-    </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B89" s="4"/>
-    </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B90" s="4"/>
-    </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B91" s="4"/>
-    </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B92" s="4"/>
-    </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B93" s="4"/>
-    </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B94" s="4"/>
-    </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B95" s="4"/>
-    </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B96" s="4"/>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B97" s="4"/>
-    </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B98" s="4"/>
-    </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B99" s="4"/>
-    </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B100" s="4"/>
-    </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B101" s="4"/>
-    </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B102" s="4"/>
-    </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B103" s="4"/>
-    </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B104" s="4"/>
-    </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B105" s="4"/>
-    </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B106" s="4"/>
-    </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B107" s="4"/>
-    </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B108" s="4"/>
-    </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B109" s="4"/>
-    </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B110" s="4"/>
-    </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B111" s="4"/>
-    </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B112" s="4"/>
-    </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B113" s="4"/>
-    </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B114" s="4"/>
-    </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B115" s="4"/>
-    </row>
-    <row r="116" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B116" s="4"/>
-    </row>
-    <row r="117" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B117" s="4"/>
-    </row>
-    <row r="118" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B118" s="4"/>
-    </row>
-    <row r="119" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B119" s="4"/>
-    </row>
-    <row r="120" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B120" s="4"/>
-    </row>
-    <row r="121" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B121" s="4"/>
-    </row>
-    <row r="122" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B122" s="4"/>
-    </row>
-    <row r="123" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B123" s="4"/>
-    </row>
-    <row r="124" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B124" s="4"/>
-    </row>
-    <row r="125" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B125" s="4"/>
-    </row>
-    <row r="126" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B126" s="4"/>
-    </row>
-    <row r="127" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B127" s="4"/>
-    </row>
-    <row r="128" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B128" s="4"/>
-    </row>
-    <row r="129" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B129" s="4"/>
-    </row>
-    <row r="130" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B130" s="4"/>
-    </row>
-    <row r="131" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B131" s="4"/>
-    </row>
-    <row r="132" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B132" s="4"/>
-    </row>
-    <row r="133" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B133" s="4"/>
-    </row>
-    <row r="134" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B134" s="4"/>
-    </row>
-    <row r="135" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B135" s="4"/>
-    </row>
-    <row r="136" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B136" s="4"/>
-    </row>
-    <row r="137" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B137" s="4"/>
-    </row>
-    <row r="138" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B138" s="4"/>
-    </row>
-    <row r="139" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B139" s="4"/>
-    </row>
-    <row r="140" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B140" s="4"/>
-    </row>
-    <row r="141" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B141" s="4"/>
-    </row>
-    <row r="142" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B142" s="4"/>
-    </row>
-    <row r="143" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B143" s="4"/>
-    </row>
-    <row r="144" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B144" s="4"/>
-    </row>
-    <row r="145" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B145" s="4"/>
-    </row>
-    <row r="146" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B146" s="4"/>
-    </row>
-    <row r="147" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B147" s="4"/>
-    </row>
-    <row r="148" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B82" s="4">
+        <v>0.56944444444444442</v>
+      </c>
+      <c r="C82" t="s">
+        <v>0</v>
+      </c>
+      <c r="D82" t="s">
+        <v>15</v>
+      </c>
+      <c r="E82" t="s">
+        <v>66</v>
+      </c>
+      <c r="F82" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G82" t="s">
+        <v>30</v>
+      </c>
+      <c r="H82" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" s="7">
+        <v>99</v>
+      </c>
+      <c r="B83" s="4">
+        <v>0.59791666666666665</v>
+      </c>
+      <c r="C83" t="s">
+        <v>0</v>
+      </c>
+      <c r="D83" t="s">
+        <v>15</v>
+      </c>
+      <c r="E83" t="s">
+        <v>66</v>
+      </c>
+      <c r="F83" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G83" t="s">
+        <v>54</v>
+      </c>
+      <c r="H83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" s="7">
+        <v>101</v>
+      </c>
+      <c r="B84" s="4">
+        <v>0.39652777777777781</v>
+      </c>
+      <c r="C84" t="s">
+        <v>0</v>
+      </c>
+      <c r="D84" t="s">
+        <v>15</v>
+      </c>
+      <c r="E84" t="s">
+        <v>67</v>
+      </c>
+      <c r="F84" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G84" t="s">
+        <v>87</v>
+      </c>
+      <c r="H84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" s="7">
+        <v>102</v>
+      </c>
+      <c r="B85" s="4">
+        <v>0.41597222222222219</v>
+      </c>
+      <c r="C85" t="s">
+        <v>0</v>
+      </c>
+      <c r="D85" t="s">
+        <v>15</v>
+      </c>
+      <c r="E85" t="s">
+        <v>67</v>
+      </c>
+      <c r="F85" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G85" t="s">
+        <v>155</v>
+      </c>
+      <c r="H85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" s="7">
+        <v>103</v>
+      </c>
+      <c r="B86" s="4">
+        <v>0.4381944444444445</v>
+      </c>
+      <c r="C86" t="s">
+        <v>0</v>
+      </c>
+      <c r="D86" t="s">
+        <v>15</v>
+      </c>
+      <c r="E86" t="s">
+        <v>67</v>
+      </c>
+      <c r="F86" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G86" t="s">
+        <v>59</v>
+      </c>
+      <c r="H86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" s="7">
+        <v>104</v>
+      </c>
+      <c r="B87" s="4">
+        <v>0.4458333333333333</v>
+      </c>
+      <c r="C87" t="s">
+        <v>0</v>
+      </c>
+      <c r="D87" t="s">
+        <v>15</v>
+      </c>
+      <c r="E87" t="s">
+        <v>67</v>
+      </c>
+      <c r="F87" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="G87" t="s">
+        <v>84</v>
+      </c>
+      <c r="H87" s="3">
+        <v>0.128</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" s="7">
+        <v>105</v>
+      </c>
+      <c r="B88" s="4">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="C88" t="s">
+        <v>0</v>
+      </c>
+      <c r="D88" t="s">
+        <v>15</v>
+      </c>
+      <c r="E88" t="s">
+        <v>67</v>
+      </c>
+      <c r="F88" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="G88" t="s">
+        <v>82</v>
+      </c>
+      <c r="H88" s="3">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" s="7">
+        <v>106</v>
+      </c>
+      <c r="B89" s="4">
+        <v>0.45555555555555555</v>
+      </c>
+      <c r="C89" t="s">
+        <v>0</v>
+      </c>
+      <c r="D89" t="s">
+        <v>15</v>
+      </c>
+      <c r="E89" t="s">
+        <v>67</v>
+      </c>
+      <c r="F89" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="G89" t="s">
+        <v>59</v>
+      </c>
+      <c r="H89" s="3">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" s="7">
+        <v>107</v>
+      </c>
+      <c r="B90" s="4">
+        <v>0.45763888888888887</v>
+      </c>
+      <c r="C90" t="s">
+        <v>0</v>
+      </c>
+      <c r="D90" t="s">
+        <v>15</v>
+      </c>
+      <c r="E90" t="s">
+        <v>67</v>
+      </c>
+      <c r="F90" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="G90" t="s">
+        <v>157</v>
+      </c>
+      <c r="H90" s="3">
+        <v>1.4259999999999999</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" s="7">
+        <v>108</v>
+      </c>
+      <c r="B91" s="4">
+        <v>0.47361111111111115</v>
+      </c>
+      <c r="C91" t="s">
+        <v>0</v>
+      </c>
+      <c r="D91" t="s">
+        <v>15</v>
+      </c>
+      <c r="E91" t="s">
+        <v>67</v>
+      </c>
+      <c r="F91" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="G91" t="s">
+        <v>158</v>
+      </c>
+      <c r="H91" s="3">
+        <v>1.292</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92" s="7">
+        <v>109</v>
+      </c>
+      <c r="B92" s="4">
+        <v>0.49722222222222223</v>
+      </c>
+      <c r="C92" t="s">
+        <v>0</v>
+      </c>
+      <c r="D92" t="s">
+        <v>15</v>
+      </c>
+      <c r="E92" t="s">
+        <v>67</v>
+      </c>
+      <c r="F92" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G92" t="s">
+        <v>19</v>
+      </c>
+      <c r="H92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" s="7">
+        <v>110</v>
+      </c>
+      <c r="B93" s="4">
+        <v>0.51458333333333328</v>
+      </c>
+      <c r="C93" t="s">
+        <v>0</v>
+      </c>
+      <c r="D93" t="s">
+        <v>15</v>
+      </c>
+      <c r="E93" t="s">
+        <v>67</v>
+      </c>
+      <c r="F93" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="G93" t="s">
+        <v>125</v>
+      </c>
+      <c r="H93" s="3">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" s="7">
+        <v>111</v>
+      </c>
+      <c r="B94" s="4">
+        <v>0.5444444444444444</v>
+      </c>
+      <c r="C94" t="s">
+        <v>0</v>
+      </c>
+      <c r="D94" t="s">
+        <v>15</v>
+      </c>
+      <c r="E94" t="s">
+        <v>67</v>
+      </c>
+      <c r="F94" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G94" t="s">
+        <v>33</v>
+      </c>
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" s="7">
+        <v>112</v>
+      </c>
+      <c r="B95" s="4">
+        <v>0.54583333333333328</v>
+      </c>
+      <c r="C95" t="s">
+        <v>0</v>
+      </c>
+      <c r="D95" t="s">
+        <v>15</v>
+      </c>
+      <c r="E95" t="s">
+        <v>67</v>
+      </c>
+      <c r="F95" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="G95" t="s">
+        <v>57</v>
+      </c>
+      <c r="H95" s="3">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96" s="7">
+        <v>113</v>
+      </c>
+      <c r="B96" s="4">
+        <v>0.54652777777777783</v>
+      </c>
+      <c r="C96" t="s">
+        <v>0</v>
+      </c>
+      <c r="D96" t="s">
+        <v>15</v>
+      </c>
+      <c r="E96" t="s">
+        <v>67</v>
+      </c>
+      <c r="F96" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G96" t="s">
+        <v>159</v>
+      </c>
+      <c r="H96" s="3">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" s="7">
+        <v>114</v>
+      </c>
+      <c r="B97" s="4">
+        <v>0.5625</v>
+      </c>
+      <c r="C97" t="s">
+        <v>0</v>
+      </c>
+      <c r="D97" t="s">
+        <v>15</v>
+      </c>
+      <c r="E97" t="s">
+        <v>67</v>
+      </c>
+      <c r="F97" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G97" t="s">
+        <v>38</v>
+      </c>
+      <c r="H97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98" s="7">
+        <v>115</v>
+      </c>
+      <c r="B98" s="4">
+        <v>0.58402777777777781</v>
+      </c>
+      <c r="C98" t="s">
+        <v>0</v>
+      </c>
+      <c r="D98" t="s">
+        <v>15</v>
+      </c>
+      <c r="E98" t="s">
+        <v>67</v>
+      </c>
+      <c r="F98" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G98" t="s">
+        <v>124</v>
+      </c>
+      <c r="H98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99" s="7">
+        <v>116</v>
+      </c>
+      <c r="B99" s="4">
+        <v>0.63541666666666663</v>
+      </c>
+      <c r="C99" t="s">
+        <v>0</v>
+      </c>
+      <c r="D99" t="s">
+        <v>15</v>
+      </c>
+      <c r="E99" t="s">
+        <v>67</v>
+      </c>
+      <c r="F99" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G99" t="s">
+        <v>129</v>
+      </c>
+      <c r="H99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100" s="7">
+        <v>117</v>
+      </c>
+      <c r="B100" s="4">
+        <v>0.68680555555555556</v>
+      </c>
+      <c r="C100" t="s">
+        <v>0</v>
+      </c>
+      <c r="D100" t="s">
+        <v>15</v>
+      </c>
+      <c r="E100" t="s">
+        <v>67</v>
+      </c>
+      <c r="F100" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="G100" t="s">
+        <v>138</v>
+      </c>
+      <c r="H100" s="3">
+        <v>1.5940000000000001</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" s="7">
+        <v>118</v>
+      </c>
+      <c r="B101" s="4">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C101" t="s">
+        <v>0</v>
+      </c>
+      <c r="D101" t="s">
+        <v>15</v>
+      </c>
+      <c r="E101" t="s">
+        <v>67</v>
+      </c>
+      <c r="F101" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="G101" t="s">
+        <v>161</v>
+      </c>
+      <c r="H101" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102" s="7">
+        <v>119</v>
+      </c>
+      <c r="B102" s="4">
+        <v>0.79305555555555562</v>
+      </c>
+      <c r="C102" t="s">
+        <v>0</v>
+      </c>
+      <c r="D102" t="s">
+        <v>15</v>
+      </c>
+      <c r="E102" t="s">
+        <v>67</v>
+      </c>
+      <c r="F102" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G102" t="s">
+        <v>108</v>
+      </c>
+      <c r="H102" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103" s="7">
+        <v>123</v>
+      </c>
+      <c r="B103" s="4">
+        <v>0.4861111111111111</v>
+      </c>
+      <c r="C103" t="s">
+        <v>0</v>
+      </c>
+      <c r="D103" t="s">
+        <v>15</v>
+      </c>
+      <c r="E103" t="s">
+        <v>68</v>
+      </c>
+      <c r="F103" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="G103" t="s">
+        <v>90</v>
+      </c>
+      <c r="H103" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104" s="7">
+        <v>129</v>
+      </c>
+      <c r="B104" s="4">
+        <v>0.66319444444444442</v>
+      </c>
+      <c r="C104" t="s">
+        <v>0</v>
+      </c>
+      <c r="D104" t="s">
+        <v>15</v>
+      </c>
+      <c r="E104" t="s">
+        <v>58</v>
+      </c>
+      <c r="F104" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="G104" t="s">
+        <v>99</v>
+      </c>
+      <c r="H104" s="3">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A105" s="7">
+        <v>131</v>
+      </c>
+      <c r="B105" s="4">
+        <v>0.60763888888888895</v>
+      </c>
+      <c r="C105" t="s">
+        <v>0</v>
+      </c>
+      <c r="D105" t="s">
+        <v>15</v>
+      </c>
+      <c r="E105" t="s">
+        <v>60</v>
+      </c>
+      <c r="F105" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="G105" t="s">
+        <v>56</v>
+      </c>
+      <c r="H105" s="3">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A106" s="7">
+        <v>132</v>
+      </c>
+      <c r="B106" s="4">
+        <v>0.60833333333333328</v>
+      </c>
+      <c r="C106" t="s">
+        <v>0</v>
+      </c>
+      <c r="D106" t="s">
+        <v>15</v>
+      </c>
+      <c r="E106" t="s">
+        <v>60</v>
+      </c>
+      <c r="F106" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="G106" t="s">
+        <v>133</v>
+      </c>
+      <c r="H106" s="3">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107" s="7">
+        <v>133</v>
+      </c>
+      <c r="B107" s="4">
+        <v>0.61041666666666672</v>
+      </c>
+      <c r="C107" t="s">
+        <v>0</v>
+      </c>
+      <c r="D107" t="s">
+        <v>15</v>
+      </c>
+      <c r="E107" t="s">
+        <v>60</v>
+      </c>
+      <c r="F107" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="G107" t="s">
+        <v>29</v>
+      </c>
+      <c r="H107" s="3">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A108" s="7">
+        <v>134</v>
+      </c>
+      <c r="B108" s="4">
+        <v>0.61736111111111114</v>
+      </c>
+      <c r="C108" t="s">
+        <v>0</v>
+      </c>
+      <c r="D108" t="s">
+        <v>15</v>
+      </c>
+      <c r="E108" t="s">
+        <v>60</v>
+      </c>
+      <c r="F108" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="G108" t="s">
+        <v>102</v>
+      </c>
+      <c r="H108" s="3">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109" s="7">
+        <v>135</v>
+      </c>
+      <c r="B109" s="4">
+        <v>0.61875000000000002</v>
+      </c>
+      <c r="C109" t="s">
+        <v>0</v>
+      </c>
+      <c r="D109" t="s">
+        <v>15</v>
+      </c>
+      <c r="E109" t="s">
+        <v>60</v>
+      </c>
+      <c r="F109" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="G109" t="s">
+        <v>109</v>
+      </c>
+      <c r="H109" s="3">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A110" s="7">
+        <v>136</v>
+      </c>
+      <c r="B110" s="4">
+        <v>0.62222222222222223</v>
+      </c>
+      <c r="C110" t="s">
+        <v>0</v>
+      </c>
+      <c r="D110" t="s">
+        <v>15</v>
+      </c>
+      <c r="E110" t="s">
+        <v>60</v>
+      </c>
+      <c r="F110" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="G110" t="s">
+        <v>115</v>
+      </c>
+      <c r="H110" s="3">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A111" s="7">
+        <v>142</v>
+      </c>
+      <c r="B111" s="4">
+        <v>0.61527777777777781</v>
+      </c>
+      <c r="C111" t="s">
+        <v>0</v>
+      </c>
+      <c r="D111" t="s">
+        <v>15</v>
+      </c>
+      <c r="E111" t="s">
+        <v>60</v>
+      </c>
+      <c r="F111" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="G111" t="s">
+        <v>123</v>
+      </c>
+      <c r="H111" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A112" s="7">
+        <v>149</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C112" t="s">
+        <v>0</v>
+      </c>
+      <c r="D112" t="s">
+        <v>103</v>
+      </c>
+      <c r="E112" t="s">
+        <v>16</v>
+      </c>
+      <c r="F112" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="G112" t="s">
+        <v>164</v>
+      </c>
+      <c r="H112" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A113" s="7">
+        <v>151</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C113" t="s">
+        <v>0</v>
+      </c>
+      <c r="D113" t="s">
+        <v>103</v>
+      </c>
+      <c r="E113" t="s">
+        <v>20</v>
+      </c>
+      <c r="F113" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="G113" t="s">
+        <v>165</v>
+      </c>
+      <c r="H113" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A114" s="7">
+        <v>153</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C114" t="s">
+        <v>0</v>
+      </c>
+      <c r="D114" t="s">
+        <v>103</v>
+      </c>
+      <c r="E114" t="s">
+        <v>24</v>
+      </c>
+      <c r="F114" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="G114" t="s">
+        <v>166</v>
+      </c>
+      <c r="H114" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A115" s="7">
+        <v>155</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C115" t="s">
+        <v>0</v>
+      </c>
+      <c r="D115" t="s">
+        <v>103</v>
+      </c>
+      <c r="E115" t="s">
+        <v>72</v>
+      </c>
+      <c r="F115" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="G115" t="s">
+        <v>167</v>
+      </c>
+      <c r="H115" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A116" s="7">
+        <v>157</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C116" t="s">
+        <v>0</v>
+      </c>
+      <c r="D116" t="s">
+        <v>103</v>
+      </c>
+      <c r="E116" t="s">
+        <v>26</v>
+      </c>
+      <c r="F116" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="G116" t="s">
+        <v>168</v>
+      </c>
+      <c r="H116" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A117" s="7">
+        <v>159</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C117" t="s">
+        <v>0</v>
+      </c>
+      <c r="D117" t="s">
+        <v>103</v>
+      </c>
+      <c r="E117" t="s">
+        <v>73</v>
+      </c>
+      <c r="F117" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="G117" t="s">
+        <v>169</v>
+      </c>
+      <c r="H117" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A118" s="7">
+        <v>161</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C118" t="s">
+        <v>0</v>
+      </c>
+      <c r="D118" t="s">
+        <v>103</v>
+      </c>
+      <c r="E118" t="s">
+        <v>28</v>
+      </c>
+      <c r="F118" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="G118" t="s">
+        <v>170</v>
+      </c>
+      <c r="H118" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A119" s="7">
+        <v>163</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C119" t="s">
+        <v>0</v>
+      </c>
+      <c r="D119" t="s">
+        <v>103</v>
+      </c>
+      <c r="E119" t="s">
+        <v>31</v>
+      </c>
+      <c r="F119" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="G119" t="s">
+        <v>171</v>
+      </c>
+      <c r="H119" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A120" s="7">
+        <v>165</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C120" t="s">
+        <v>0</v>
+      </c>
+      <c r="D120" t="s">
+        <v>103</v>
+      </c>
+      <c r="E120" t="s">
+        <v>32</v>
+      </c>
+      <c r="F120" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="G120" t="s">
+        <v>172</v>
+      </c>
+      <c r="H120" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A121" s="7">
+        <v>167</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C121" t="s">
+        <v>0</v>
+      </c>
+      <c r="D121" t="s">
+        <v>103</v>
+      </c>
+      <c r="E121" t="s">
+        <v>40</v>
+      </c>
+      <c r="F121" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="G121" t="s">
+        <v>173</v>
+      </c>
+      <c r="H121" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A122" s="7">
+        <v>168</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C122" t="s">
+        <v>0</v>
+      </c>
+      <c r="D122" t="s">
+        <v>103</v>
+      </c>
+      <c r="E122" t="s">
+        <v>40</v>
+      </c>
+      <c r="F122" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="G122" t="s">
+        <v>174</v>
+      </c>
+      <c r="H122" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A123" s="7">
+        <v>170</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C123" t="s">
+        <v>0</v>
+      </c>
+      <c r="D123" t="s">
+        <v>103</v>
+      </c>
+      <c r="E123" t="s">
+        <v>42</v>
+      </c>
+      <c r="F123" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="G123" t="s">
+        <v>175</v>
+      </c>
+      <c r="H123" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A124" s="7">
+        <v>172</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C124" t="s">
+        <v>0</v>
+      </c>
+      <c r="D124" t="s">
+        <v>103</v>
+      </c>
+      <c r="E124" t="s">
+        <v>44</v>
+      </c>
+      <c r="F124" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="G124" t="s">
+        <v>176</v>
+      </c>
+      <c r="H124" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A125" s="7">
+        <v>174</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C125" t="s">
+        <v>0</v>
+      </c>
+      <c r="D125" t="s">
+        <v>103</v>
+      </c>
+      <c r="E125" t="s">
+        <v>45</v>
+      </c>
+      <c r="F125" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="G125" t="s">
+        <v>177</v>
+      </c>
+      <c r="H125" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A126" s="7">
+        <v>176</v>
+      </c>
+      <c r="B126" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C126" t="s">
+        <v>0</v>
+      </c>
+      <c r="D126" t="s">
+        <v>103</v>
+      </c>
+      <c r="E126" t="s">
+        <v>48</v>
+      </c>
+      <c r="F126" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="G126" t="s">
+        <v>178</v>
+      </c>
+      <c r="H126" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A127" s="7">
+        <v>178</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C127" t="s">
+        <v>0</v>
+      </c>
+      <c r="D127" t="s">
+        <v>103</v>
+      </c>
+      <c r="E127" t="s">
+        <v>49</v>
+      </c>
+      <c r="F127" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="G127" t="s">
+        <v>179</v>
+      </c>
+      <c r="H127" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A128" s="7">
+        <v>180</v>
+      </c>
+      <c r="B128" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C128" t="s">
+        <v>0</v>
+      </c>
+      <c r="D128" t="s">
+        <v>103</v>
+      </c>
+      <c r="E128" t="s">
+        <v>53</v>
+      </c>
+      <c r="F128" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="G128" t="s">
+        <v>180</v>
+      </c>
+      <c r="H128" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A129" s="7">
+        <v>185</v>
+      </c>
+      <c r="B129" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C129" t="s">
+        <v>0</v>
+      </c>
+      <c r="D129" t="s">
+        <v>70</v>
+      </c>
+      <c r="E129" t="s">
+        <v>55</v>
+      </c>
+      <c r="F129" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="G129" t="s">
+        <v>181</v>
+      </c>
+      <c r="H129" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A130" s="7">
+        <v>187</v>
+      </c>
+      <c r="B130" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C130" t="s">
+        <v>0</v>
+      </c>
+      <c r="D130" t="s">
+        <v>70</v>
+      </c>
+      <c r="E130" t="s">
+        <v>75</v>
+      </c>
+      <c r="F130" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="G130" t="s">
+        <v>182</v>
+      </c>
+      <c r="H130" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A131" s="7">
+        <v>189</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C131" t="s">
+        <v>0</v>
+      </c>
+      <c r="D131" t="s">
+        <v>70</v>
+      </c>
+      <c r="E131" t="s">
+        <v>77</v>
+      </c>
+      <c r="F131" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="G131" t="s">
+        <v>183</v>
+      </c>
+      <c r="H131" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A132" s="7">
+        <v>191</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C132" t="s">
+        <v>0</v>
+      </c>
+      <c r="D132" t="s">
+        <v>70</v>
+      </c>
+      <c r="E132" t="s">
+        <v>61</v>
+      </c>
+      <c r="F132" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="G132" t="s">
+        <v>184</v>
+      </c>
+      <c r="H132" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A133" s="7">
+        <v>193</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C133" t="s">
+        <v>0</v>
+      </c>
+      <c r="D133" t="s">
+        <v>70</v>
+      </c>
+      <c r="E133" t="s">
+        <v>62</v>
+      </c>
+      <c r="F133" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="G133" t="s">
+        <v>185</v>
+      </c>
+      <c r="H133" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A134" s="7">
+        <v>195</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C134" t="s">
+        <v>0</v>
+      </c>
+      <c r="D134" t="s">
+        <v>70</v>
+      </c>
+      <c r="E134" t="s">
+        <v>78</v>
+      </c>
+      <c r="F134" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="G134" t="s">
+        <v>186</v>
+      </c>
+      <c r="H134" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A135" s="7">
+        <v>197</v>
+      </c>
+      <c r="B135" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C135" t="s">
+        <v>0</v>
+      </c>
+      <c r="D135" t="s">
+        <v>70</v>
+      </c>
+      <c r="E135" t="s">
+        <v>79</v>
+      </c>
+      <c r="F135" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="G135" t="s">
+        <v>187</v>
+      </c>
+      <c r="H135" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A136" s="7">
+        <v>199</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C136" t="s">
+        <v>0</v>
+      </c>
+      <c r="D136" t="s">
+        <v>70</v>
+      </c>
+      <c r="E136" t="s">
+        <v>65</v>
+      </c>
+      <c r="F136" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="G136" t="s">
+        <v>188</v>
+      </c>
+      <c r="H136" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A137" s="7">
+        <v>201</v>
+      </c>
+      <c r="B137" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C137" t="s">
+        <v>0</v>
+      </c>
+      <c r="D137" t="s">
+        <v>70</v>
+      </c>
+      <c r="E137" t="s">
+        <v>66</v>
+      </c>
+      <c r="F137" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="G137" t="s">
+        <v>189</v>
+      </c>
+      <c r="H137" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A138" s="7">
+        <v>203</v>
+      </c>
+      <c r="B138" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C138" t="s">
+        <v>0</v>
+      </c>
+      <c r="D138" t="s">
+        <v>70</v>
+      </c>
+      <c r="E138" t="s">
+        <v>67</v>
+      </c>
+      <c r="F138" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="G138" t="s">
+        <v>190</v>
+      </c>
+      <c r="H138" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A139" s="7">
+        <v>205</v>
+      </c>
+      <c r="B139" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C139" t="s">
+        <v>0</v>
+      </c>
+      <c r="D139" t="s">
+        <v>70</v>
+      </c>
+      <c r="E139" t="s">
+        <v>68</v>
+      </c>
+      <c r="F139" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="G139" t="s">
+        <v>191</v>
+      </c>
+      <c r="H139" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A140" s="7">
+        <v>211</v>
+      </c>
+      <c r="B140" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C140" t="s">
+        <v>0</v>
+      </c>
+      <c r="D140" t="s">
+        <v>70</v>
+      </c>
+      <c r="E140" t="s">
+        <v>75</v>
+      </c>
+      <c r="F140" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="G140" t="s">
+        <v>193</v>
+      </c>
+      <c r="H140" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A141" s="7">
+        <v>212</v>
+      </c>
+      <c r="B141" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C141" t="s">
+        <v>0</v>
+      </c>
+      <c r="D141" t="s">
+        <v>70</v>
+      </c>
+      <c r="E141" t="s">
+        <v>75</v>
+      </c>
+      <c r="F141" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G141" t="s">
+        <v>200</v>
+      </c>
+      <c r="H141" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A142" s="7">
+        <v>214</v>
+      </c>
+      <c r="B142" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C142" t="s">
+        <v>0</v>
+      </c>
+      <c r="D142" t="s">
+        <v>70</v>
+      </c>
+      <c r="E142" t="s">
+        <v>77</v>
+      </c>
+      <c r="F142" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G142" t="s">
+        <v>201</v>
+      </c>
+      <c r="H142" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A143" s="7">
+        <v>217</v>
+      </c>
+      <c r="B143" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C143" t="s">
+        <v>0</v>
+      </c>
+      <c r="D143" t="s">
+        <v>70</v>
+      </c>
+      <c r="E143" t="s">
+        <v>75</v>
+      </c>
+      <c r="F143" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="G143" t="s">
+        <v>195</v>
+      </c>
+      <c r="H143" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A144" s="7">
+        <v>218</v>
+      </c>
+      <c r="B144" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C144" t="s">
+        <v>0</v>
+      </c>
+      <c r="D144" t="s">
+        <v>70</v>
+      </c>
+      <c r="E144" t="s">
+        <v>75</v>
+      </c>
+      <c r="F144" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="G144" t="s">
+        <v>196</v>
+      </c>
+      <c r="H144" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A145" s="7">
+        <v>220</v>
+      </c>
+      <c r="B145" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C145" t="s">
+        <v>0</v>
+      </c>
+      <c r="D145" t="s">
+        <v>70</v>
+      </c>
+      <c r="E145" t="s">
+        <v>60</v>
+      </c>
+      <c r="F145" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="G145" t="s">
+        <v>74</v>
+      </c>
+      <c r="H145" s="3">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A146" s="7">
+        <v>227</v>
+      </c>
+      <c r="B146" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C146" t="s">
+        <v>0</v>
+      </c>
+      <c r="D146" t="s">
+        <v>93</v>
+      </c>
+      <c r="E146" t="s">
+        <v>76</v>
+      </c>
+      <c r="F146" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="G146" t="s">
+        <v>92</v>
+      </c>
+      <c r="H146" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A147" s="7">
+        <v>229</v>
+      </c>
+      <c r="B147" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C147" t="s">
+        <v>0</v>
+      </c>
+      <c r="D147" t="s">
+        <v>93</v>
+      </c>
+      <c r="E147" t="s">
+        <v>58</v>
+      </c>
+      <c r="F147" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="G147" t="s">
+        <v>92</v>
+      </c>
+      <c r="H147" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B148" s="4"/>
     </row>
-    <row r="149" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B149" s="4"/>
     </row>
-    <row r="150" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B150" s="4"/>
     </row>
-    <row r="151" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B151" s="4"/>
     </row>
-    <row r="152" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B152" s="4"/>
     </row>
-    <row r="153" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B153" s="4"/>
     </row>
-    <row r="154" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B154" s="4"/>
     </row>
-    <row r="155" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B155" s="4"/>
     </row>
-    <row r="156" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B156" s="4"/>
     </row>
-    <row r="157" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B157" s="4"/>
     </row>
-    <row r="158" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B158" s="4"/>
     </row>
-    <row r="159" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B159" s="4"/>
     </row>
-    <row r="160" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B160" s="4"/>
     </row>
     <row r="161" spans="2:2" x14ac:dyDescent="0.25">
